--- a/Exercício 3/Resultados/RNA Task.xlsx
+++ b/Exercício 3/Resultados/RNA Task.xlsx
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,7 +436,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,13 +460,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,29 +484,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AW77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -870,40 +861,40 @@
       <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:49" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:49" ht="15" x14ac:dyDescent="0.2">
       <c r="AA4"/>
@@ -931,36 +922,36 @@
       <c r="AW4"/>
     </row>
     <row r="5" spans="2:49" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="G5" s="49" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="L5" s="49" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="Q5" s="49" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="V5" s="49" t="s">
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="V5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
@@ -986,54 +977,54 @@
       <c r="AW5"/>
     </row>
     <row r="6" spans="2:49" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="17" t="s">
+      <c r="N6" s="53"/>
+      <c r="O6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="17" t="s">
+      <c r="S6" s="53"/>
+      <c r="T6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="W6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="17" t="s">
+      <c r="X6" s="53"/>
+      <c r="Y6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA6"/>
@@ -1061,70 +1052,70 @@
       <c r="AW6"/>
     </row>
     <row r="7" spans="2:49" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),1)</f>
+      <c r="B7" s="44">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="52">
         <f>MIN(C10:C74)</f>
         <v>0.69051339629999997</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="18">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),4)</f>
+      <c r="D7" s="52"/>
+      <c r="E7" s="44">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
         <v>119.06174</v>
       </c>
-      <c r="G7" s="18" t="e">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="G7" s="44">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
+        <v>4.3</v>
+      </c>
+      <c r="H7" s="52">
         <f>MIN(H10:H74)</f>
         <v>0.68138829190000005</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="18" t="e">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="18" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="43">
+      <c r="I7" s="52"/>
+      <c r="J7" s="44">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
+        <v>105.57531</v>
+      </c>
+      <c r="L7" s="44">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
+        <v>5.4</v>
+      </c>
+      <c r="M7" s="52">
         <f>MIN(M10:M74)</f>
         <v>0.66403099759999995</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="18" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="18" t="e">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R7" s="48">
+      <c r="N7" s="52"/>
+      <c r="O7" s="44">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
+        <v>88.766350000000003</v>
+      </c>
+      <c r="Q7" s="44">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
+        <v>5.3</v>
+      </c>
+      <c r="R7" s="52">
         <f>MIN(R10:R74)</f>
         <v>0.67648200589999996</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="18" t="e">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),4)</f>
-        <v>#REF!</v>
+      <c r="S7" s="52"/>
+      <c r="T7" s="44">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
+        <v>94.120620000000002</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="18">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),1)</f>
+      <c r="V7" s="44">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
         <v>5</v>
       </c>
-      <c r="W7" s="48">
+      <c r="W7" s="52">
         <f>MIN(W10:W74)</f>
         <v>0.66317372029999999</v>
       </c>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="18">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),4)</f>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="44">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
         <v>90.348849999999999</v>
       </c>
       <c r="AA7"/>
@@ -1152,39 +1143,39 @@
       <c r="AW7"/>
     </row>
     <row r="8" spans="2:49" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="24"/>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="V8" s="44" t="s">
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="V8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -1430,7 +1421,7 @@
       <c r="V11" s="7">
         <v>6.4</v>
       </c>
-      <c r="W11" s="60">
+      <c r="W11" s="45">
         <v>0.75370091689999996</v>
       </c>
       <c r="X11" s="27">
@@ -4500,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD20"/>
+    <sheetView showGridLines="0" topLeftCell="K3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4558,21 +4549,21 @@
       <c r="C2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="2:42" ht="16" x14ac:dyDescent="0.2">
@@ -4594,36 +4585,36 @@
       <c r="Q3" s="59"/>
     </row>
     <row r="5" spans="2:42" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="L5" s="58" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="Q5" s="58" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="V5" s="58" t="s">
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="V5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
@@ -4642,54 +4633,54 @@
       <c r="AP5"/>
     </row>
     <row r="6" spans="2:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="34" t="s">
+      <c r="N6" s="53"/>
+      <c r="O6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="34" t="s">
+      <c r="S6" s="53"/>
+      <c r="T6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="56" t="s">
+      <c r="W6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="34" t="s">
+      <c r="X6" s="53"/>
+      <c r="Y6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="AA6"/>
@@ -4710,70 +4701,70 @@
       <c r="AP6"/>
     </row>
     <row r="7" spans="2:42" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),1)</f>
+      <c r="B7" s="44">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="52">
         <f>MIN(C10:C74)</f>
         <v>0.75261780899999997</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="30">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),4)</f>
+      <c r="D7" s="52"/>
+      <c r="E7" s="44">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
         <v>123.27406999999999</v>
       </c>
-      <c r="G7" s="30">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),1)</f>
+      <c r="G7" s="44">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="52">
         <f>MIN(H10:H74)</f>
         <v>0.7432681565</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="30">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),4)</f>
+      <c r="I7" s="52"/>
+      <c r="J7" s="44">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
         <v>112.45031</v>
       </c>
-      <c r="L7" s="30" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="55">
+      <c r="L7" s="44">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M7" s="52">
         <f>MIN(M10:M74)</f>
         <v>0.72178876479999998</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="30" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="30" t="e">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R7" s="57">
+      <c r="N7" s="52"/>
+      <c r="O7" s="44">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
+        <v>82.714500000000001</v>
+      </c>
+      <c r="Q7" s="44">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
+        <v>5.3</v>
+      </c>
+      <c r="R7" s="52">
         <f>MIN(R10:R74)</f>
         <v>0.71692817909999995</v>
       </c>
-      <c r="S7" s="57"/>
-      <c r="T7" s="30" t="e">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),4)</f>
-        <v>#REF!</v>
+      <c r="S7" s="52"/>
+      <c r="T7" s="44">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
+        <v>86.370109999999997</v>
       </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="30">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),1)</f>
+      <c r="V7" s="44">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
         <v>5</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="52">
         <f>MIN(W10:W74)</f>
         <v>0.71203441000000001</v>
       </c>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="30">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),4)</f>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="44">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
         <v>89.543599999999998</v>
       </c>
       <c r="AA7"/>
@@ -4794,39 +4785,39 @@
       <c r="AP7"/>
     </row>
     <row r="8" spans="2:42" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="38"/>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
-      <c r="V8" s="52" t="s">
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
+      <c r="V8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="58"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
@@ -4953,7 +4944,7 @@
       <c r="L10" s="18">
         <v>5</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="45">
         <v>0.77097703880000001</v>
       </c>
       <c r="N10" s="18">
@@ -5042,22 +5033,22 @@
         <v>88.48151</v>
       </c>
       <c r="P11" s="29"/>
-      <c r="Q11" s="61">
+      <c r="Q11" s="46">
         <v>7</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="45">
         <v>0.73854894589999998</v>
       </c>
-      <c r="S11" s="61">
+      <c r="S11" s="46">
         <v>106875</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="47">
         <v>89.081940000000003</v>
       </c>
       <c r="V11" s="7">
         <v>6.4</v>
       </c>
-      <c r="W11" s="60">
+      <c r="W11" s="45">
         <v>0.79772403999999997</v>
       </c>
       <c r="X11" s="27">
